--- a/xls/templates/baseline-perf.xlsx
+++ b/xls/templates/baseline-perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/dev/psl/remarkably/xls/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAD1D77-1A8A-D245-A60E-4EBEBAB6FDCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5266357A-F437-A545-9731-10093DC01E1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="460" windowWidth="32980" windowHeight="19340" activeTab="1" xr2:uid="{D40BEBB0-87C8-C244-B26F-AC936A2B4ECB}"/>
+    <workbookView xWindow="3520" yWindow="460" windowWidth="32980" windowHeight="19340" activeTab="3" xr2:uid="{D40BEBB0-87C8-C244-B26F-AC936A2B4ECB}"/>
   </bookViews>
   <sheets>
     <sheet name="periods" sheetId="1" r:id="rId1"/>
@@ -228,9 +228,6 @@
     <t>spreadsheet_version</t>
   </si>
   <si>
-    <t>spreadsheet_type</t>
-  </si>
-  <si>
     <t>baseline_perf</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>COMPUTED (THESE VALUES ARE NOT ACTUALLY USED ON IMPORT)</t>
+  </si>
+  <si>
+    <t>spreadsheet_kind</t>
   </si>
 </sst>
 </file>
@@ -875,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E0EDBF-6E58-4B4A-B8B5-C27DC5D43219}">
   <dimension ref="A1:AW161"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="AP1" sqref="AP1:AR1048576"/>
     </sheetView>
   </sheetViews>
@@ -922,10 +922,10 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>1</v>
@@ -966,7 +966,7 @@
       </c>
       <c r="AB1" s="18"/>
       <c r="AC1" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD1" s="58"/>
       <c r="AE1" s="58"/>
@@ -977,22 +977,22 @@
       <c r="AJ1" s="58"/>
       <c r="AK1" s="58"/>
       <c r="AL1" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AM1" s="60"/>
       <c r="AN1" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO1" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP1" s="68" t="s">
         <v>84</v>
-      </c>
-      <c r="AP1" s="68" t="s">
-        <v>85</v>
       </c>
       <c r="AQ1" s="68"/>
       <c r="AR1" s="68"/>
       <c r="AS1" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT1" s="48"/>
     </row>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>22</v>
@@ -1082,7 +1082,7 @@
         <v>21</v>
       </c>
       <c r="AC2" s="55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD2" s="61" t="s">
         <v>35</v>
@@ -1115,10 +1115,10 @@
         <v>12</v>
       </c>
       <c r="AN2" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO2" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP2" s="62" t="s">
         <v>14</v>
@@ -1130,13 +1130,13 @@
         <v>15</v>
       </c>
       <c r="AS2" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW2" s="47"/>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B3" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
@@ -1645,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DA009D-0D66-2342-84D4-A58EBBBF534D}">
   <dimension ref="A1:BU212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="AB1" s="39"/>
       <c r="AC1" s="54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD1" s="58"/>
       <c r="AE1" s="58"/>
@@ -1727,22 +1727,22 @@
       <c r="AJ1" s="58"/>
       <c r="AK1" s="58"/>
       <c r="AL1" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AM1" s="60"/>
       <c r="AN1" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO1" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP1" s="68" t="s">
         <v>84</v>
-      </c>
-      <c r="AP1" s="68" t="s">
-        <v>85</v>
       </c>
       <c r="AQ1" s="68"/>
       <c r="AR1" s="68"/>
       <c r="AS1" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
@@ -1859,7 +1859,7 @@
         <v>21</v>
       </c>
       <c r="AC2" s="55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD2" s="61" t="s">
         <v>35</v>
@@ -1892,10 +1892,10 @@
         <v>12</v>
       </c>
       <c r="AN2" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AO2" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AP2" s="62" t="s">
         <v>14</v>
@@ -63475,7 +63475,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63485,7 +63485,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1">
         <f>MATCH(TRUE, INDEX(periods!B1:B104 = "baseline", 0, 0), 0)</f>
@@ -63494,7 +63494,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <f>B3-1</f>
@@ -63503,7 +63503,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <f>MATCH(TRUE,INDEX(ISBLANK(periods!B1:B104),0,0),0)</f>
@@ -63512,7 +63512,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4">
         <f>MATCH(TRUE,INDEX(ISBLANK(periods!A1:A104),0,0),0)-2</f>
@@ -63521,7 +63521,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <f>B2-B1+1</f>
@@ -63530,7 +63530,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6">
         <f>B4-B3+1</f>
@@ -63539,7 +63539,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5">
         <f>INDEX(periods!A:A, B1, 0)</f>
@@ -63548,7 +63548,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5">
         <f>INDEX(periods!A:A,B3)</f>
@@ -63557,7 +63557,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5">
         <f>B8</f>
@@ -63566,7 +63566,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="5" t="str">
         <f>INDEX(periods!A:A, B4+1)</f>
@@ -63575,35 +63575,35 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" t="str">
         <f ca="1">IF($B$20=$B$21,"valid", "invalid")</f>
         <v>invalid</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" t="str">
         <f>"periods!"&amp;$B$17&amp;$B$4+1&amp;":"&amp;$B$18&amp;$B$4+1</f>
@@ -63612,7 +63612,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B20">
         <f ca="1">COUNTIF(INDIRECT($B$19), "")</f>
@@ -63621,7 +63621,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B21">
         <f ca="1">COLUMN(INDIRECT($B$18&amp;":"&amp;$B$18)) - COLUMN(INDIRECT($B$17&amp;":"&amp;$B$17)) + 1</f>
@@ -63637,8 +63637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8AF2EE2-6A92-E445-A48F-93047C85AD62}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -63649,10 +63649,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
